--- a/Engine IO.xlsx
+++ b/Engine IO.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jaidan/Dropbox/Geekery/bedford330/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4685A1D-CADB-A84E-8A3A-491EF01BE3EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26BF8A-9D41-A148-A0D1-401C76CFB6A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="26580" windowHeight="25140" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
+    <workbookView xWindow="2080" yWindow="2940" windowWidth="26580" windowHeight="25140" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="type">Sheet1!$D$5:$D$75</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,16 +28,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Bedford 330 Diesel I/O List</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>roadSpeed</t>
+  </si>
+  <si>
+    <t>engineSpeed</t>
+  </si>
+  <si>
+    <t>fuelLevel2</t>
+  </si>
+  <si>
+    <t>fuelLevel1</t>
+  </si>
+  <si>
+    <t>waterTemp</t>
+  </si>
+  <si>
+    <t>oilTemp</t>
+  </si>
+  <si>
+    <t>oilPressure</t>
+  </si>
+  <si>
+    <t>brakePressure</t>
+  </si>
+  <si>
+    <t>engineBattVolts</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>VDO resistive sender</t>
+  </si>
+  <si>
+    <t>voltage divider</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>waterGauge</t>
+  </si>
+  <si>
+    <t>fuelGauge</t>
+  </si>
+  <si>
+    <t>oilPressureLight</t>
+  </si>
+  <si>
+    <t>otherLight</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>oilPressureLow</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>brakePressureLow</t>
+  </si>
+  <si>
+    <t>IO Type</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>rpiLink</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Smart Display</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>bluetoothLink</t>
+  </si>
+  <si>
+    <t>16:2 display</t>
+  </si>
+  <si>
+    <t>Used as backup for when Smart Display isn't working.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,16 +147,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -59,12 +177,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,18 +603,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A602C23B-CEC5-164C-8B31-8A986162D4D5}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11">
+        <f>COUNTIF(type, G5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="12">
+        <f>COUNTIF(type, G6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="12">
+        <f>COUNTIF(type, G7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="12">
+        <f>COUNTIF(type, G8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="13">
+        <f>COUNTIF(type, G9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Engine IO.xlsx
+++ b/Engine IO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jaidan/Dropbox/Geekery/bedford330/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26BF8A-9D41-A148-A0D1-401C76CFB6A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F1785-80B7-0F4A-86BD-00D003D76563}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="2940" windowWidth="26580" windowHeight="25140" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +150,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -289,6 +297,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +615,7 @@
   <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,8 +625,8 @@
     <col min="6" max="6" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Engine IO.xlsx
+++ b/Engine IO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jaidan/Dropbox/Geekery/bedford330/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F1785-80B7-0F4A-86BD-00D003D76563}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E23B52C-D033-8642-AFD6-79E294737E19}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="2940" windowWidth="26580" windowHeight="25140" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="58" uniqueCount="35">
   <si>
     <t>Bedford 330 Diesel I/O List</t>
   </si>
@@ -138,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -179,17 +182,17 @@
   </fills>
   <borders count="9">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right/>
+      <start style="medium">
+        <color theme="9"/>
+      </start>
+      <end/>
       <top style="medium">
         <color theme="9"/>
       </top>
@@ -197,10 +200,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
+      <start/>
+      <end style="medium">
+        <color theme="9"/>
+      </end>
       <top style="medium">
         <color theme="9"/>
       </top>
@@ -208,28 +211,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right/>
+      <start style="medium">
+        <color theme="9"/>
+      </start>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
+      <start/>
+      <end style="medium">
+        <color theme="9"/>
+      </end>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right/>
+      <start style="medium">
+        <color theme="9"/>
+      </start>
+      <end/>
       <top/>
       <bottom style="medium">
         <color theme="9"/>
@@ -237,10 +240,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
+      <start/>
+      <end style="medium">
+        <color theme="9"/>
+      </end>
       <top/>
       <bottom style="medium">
         <color theme="9"/>
@@ -248,8 +251,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="medium">
         <color theme="9"/>
       </top>
@@ -257,8 +260,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="medium">
         <color theme="9"/>
@@ -316,7 +319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,25 +472,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -495,25 +498,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -526,21 +529,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -554,7 +557,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -566,32 +569,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -611,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A602C23B-CEC5-164C-8B31-8A986162D4D5}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A602C23B-CEC5-164C-8B31-8A986162D4D5}">
   <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Engine IO.xlsx
+++ b/Engine IO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jaidan/Dropbox/Geekery/bedford330/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E23B52C-D033-8642-AFD6-79E294737E19}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ED263B70-CEC9-7443-9A7C-224BE2455DBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="2940" windowWidth="26580" windowHeight="25140" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="58" uniqueCount="35">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="61" uniqueCount="37">
   <si>
     <t>Bedford 330 Diesel I/O List</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Used as backup for when Smart Display isn't working.</t>
+  </si>
+  <si>
+    <t>housePowerLink</t>
+  </si>
+  <si>
+    <t>comms link with the house power battery monitor</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +758,7 @@
       </c>
       <c r="H9" s="13">
         <f>COUNTIF(type, G9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -908,10 +914,16 @@
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">

--- a/Engine IO.xlsx
+++ b/Engine IO.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jaidan/Dropbox/Geekery/bedford330/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaidan\Dropbox\Geekery\bedford330\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ED263B70-CEC9-7443-9A7C-224BE2455DBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{683940A6-D753-4848-B58A-33861C93E97D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2940" windowWidth="26580" windowHeight="25140" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
+    <workbookView xWindow="25395" yWindow="465" windowWidth="25485" windowHeight="25140" firstSheet="1" activeTab="3" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IO List" sheetId="1" r:id="rId1"/>
+    <sheet name="Arduino Pin Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Volt Div Calc" sheetId="3" r:id="rId3"/>
+    <sheet name="Temp Sender" sheetId="4" r:id="rId4"/>
+    <sheet name="Level Gauge" sheetId="5" r:id="rId5"/>
+    <sheet name="Pressure" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="type">Sheet1!$D$5:$D$75</definedName>
+    <definedName name="aiList">'Arduino Pin Data'!$A$6:$A$11</definedName>
+    <definedName name="aiWhole">'Arduino Pin Data'!$A$5:$B$11</definedName>
+    <definedName name="PWM">'Arduino Pin Data'!$A$13:$B$28</definedName>
+    <definedName name="pwmList">'Arduino Pin Data'!$A$13:$A$28</definedName>
+    <definedName name="pwnWhole">'Arduino Pin Data'!$A$13:$B$28</definedName>
+    <definedName name="type">'IO List'!$F$5:$F$75</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -31,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="61" uniqueCount="37">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="231" uniqueCount="171">
   <si>
     <t>Bedford 330 Diesel I/O List</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -142,13 +149,418 @@
   </si>
   <si>
     <t>comms link with the house power battery monitor</t>
+  </si>
+  <si>
+    <t>Tagname</t>
+  </si>
+  <si>
+    <t>op1</t>
+  </si>
+  <si>
+    <t>ot1</t>
+  </si>
+  <si>
+    <t>wt1</t>
+  </si>
+  <si>
+    <t>fl1</t>
+  </si>
+  <si>
+    <t>fl2</t>
+  </si>
+  <si>
+    <t>bp1</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>Available Interrupts</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>Rx/Tx1</t>
+  </si>
+  <si>
+    <t>Rx/Tx2</t>
+  </si>
+  <si>
+    <t>Rx/Tx3</t>
+  </si>
+  <si>
+    <t>Rx/Tx4</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>hall effect</t>
+  </si>
+  <si>
+    <t>digital pot output</t>
+  </si>
+  <si>
+    <t>light in factory dash</t>
+  </si>
+  <si>
+    <t>oil pressure low switch</t>
+  </si>
+  <si>
+    <t>brake pressure low switch</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>volt divider for ot1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>volt divider for wt2</t>
+  </si>
+  <si>
+    <t>volt divider for fl2</t>
+  </si>
+  <si>
+    <t>volt divider for fl1</t>
+  </si>
+  <si>
+    <t>volt divider for bp1</t>
+  </si>
+  <si>
+    <t>Connector for resistive sensors</t>
+  </si>
+  <si>
+    <t>rs1</t>
+  </si>
+  <si>
+    <t>es1</t>
+  </si>
+  <si>
+    <t>ebv1</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>engine battery volts divider</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>engine battery connector</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>dash analog meter connection</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>Dash Lights</t>
+  </si>
+  <si>
+    <t>Switches the two dash lights.</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>gate for spare dash light</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>gate for high temp</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>spare dash light tranisitor</t>
+  </si>
+  <si>
+    <t>oil pressure transistor</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>opto for oil</t>
+  </si>
+  <si>
+    <t>opto for brake pressure low</t>
+  </si>
+  <si>
+    <t>opl1</t>
+  </si>
+  <si>
+    <t>bpl1</t>
+  </si>
+  <si>
+    <t>dl1</t>
+  </si>
+  <si>
+    <t>dl2</t>
+  </si>
+  <si>
+    <t>ohms</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ohm</t>
+  </si>
+  <si>
+    <t>10-180</t>
+  </si>
+  <si>
+    <t>0-10 bar</t>
+  </si>
+  <si>
+    <t>0-5 bar</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Temperature Sender Information.</t>
+  </si>
+  <si>
+    <t>Make:</t>
+  </si>
+  <si>
+    <t>Model:</t>
+  </si>
+  <si>
+    <t>Part Number:</t>
+  </si>
+  <si>
+    <t>VDO</t>
+  </si>
+  <si>
+    <t>323805001002C</t>
+  </si>
+  <si>
+    <t>Range:</t>
+  </si>
+  <si>
+    <t>LRV:</t>
+  </si>
+  <si>
+    <t>URV:</t>
+  </si>
+  <si>
+    <t>Ohms</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>Calibrated</t>
+  </si>
+  <si>
+    <t>˚C</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Fluke Type K thermocouple</t>
+  </si>
+  <si>
+    <t>Mastech bench multimeter</t>
+  </si>
+  <si>
+    <t>Test Instruments:</t>
+  </si>
+  <si>
+    <t>Decade Box</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>For tubular level sensor</t>
+  </si>
+  <si>
+    <t>R1 (fixed)</t>
+  </si>
+  <si>
+    <t>V in high</t>
+  </si>
+  <si>
+    <t>V in low</t>
+  </si>
+  <si>
+    <t>Do not change grey cells</t>
+  </si>
+  <si>
+    <t>R2 low (variable)</t>
+  </si>
+  <si>
+    <t>R2 high (variable)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Vout high R</t>
+  </si>
+  <si>
+    <t>Vout low R</t>
+  </si>
+  <si>
+    <t>High V</t>
+  </si>
+  <si>
+    <t>Low V</t>
+  </si>
+  <si>
+    <t>Tag:</t>
+  </si>
+  <si>
+    <t>p high</t>
+  </si>
+  <si>
+    <t>p low</t>
+  </si>
+  <si>
+    <t>+ve</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>vout</t>
+  </si>
+  <si>
+    <t>reverse voltage ratio</t>
+  </si>
+  <si>
+    <t>reverse resistor ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,8 +583,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +612,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <start/>
       <end/>
@@ -274,11 +713,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -307,12 +842,141 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FC9C34D4-6807-9B49-B21B-4098CD29AE04}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{7A3B465F-F03C-4809-A936-EF5EDA66B918}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -322,6 +986,1047 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temp Sender Calibration Check</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Temp Sender'!$H$4:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Temp Sender'!$I$4:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>232.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE54-2947-AE5F-C3B15B1E79CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1711009648"/>
+        <c:axId val="1711011328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1711009648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1711011328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1711011328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1711009648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Borrowed from https://www.allaboutcircuits.com/tools/voltage-divider-calculator/">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0849244-E747-FB47-A86C-6A8D82E9E6E5}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7772400" y="342900"/>
+          <a:ext cx="3632200" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200A3596-0BD0-8A4C-94A5-96DD98681F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,401 +2326,1713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A602C23B-CEC5-164C-8B31-8A986162D4D5}">
-  <dimension ref="B2:H36"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="134" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="47.625" customWidth="1"/>
+    <col min="8" max="8" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="11">
+        <f>COUNTIF(type, I5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="12">
+        <f>COUNTIF(type, I6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="12">
+        <f>COUNTIF(type, I7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="12">
+        <f>COUNTIF(type, I8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="13">
+        <f>COUNTIF(type, I9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f>IF(ISNUMBER(D11),VLOOKUP(D11,aiWhole,2),"")</f>
+        <v>D2</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="E12" s="8" t="str">
+        <f>IF(ISNUMBER(D12),VLOOKUP(D12,aiWhole,2),"")</f>
+        <v>D3</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11">
-        <f>COUNTIF(type, G5)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="12">
-        <f>COUNTIF(type, G6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="12">
-        <f>COUNTIF(type, G7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="12">
-        <f>COUNTIF(type, G8)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="13">
-        <f>COUNTIF(type, G9)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="8" t="str">
+        <f t="shared" ref="E24:E36" si="0">IF(ISNUMBER(D24),VLOOKUP(D24,aiWhole,2),"")</f>
+        <v/>
+      </c>
       <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="3"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="3"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>560</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E5:E36">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D36" xr:uid="{FDE90536-950E-B74A-AB1F-09C6FA2508D8}">
+      <formula1>aiList</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21874407-998D-EA4F-A90B-E26A9EF1F4F7}">
+  <dimension ref="A3:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1439CE88-9B0C-AF47-BFC8-16A65601F483}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="33"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="31">
+        <v>14.5</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="35">
+        <f>$D$4*(($D7)/($D$6+$D7))</f>
+        <v>0.97072544903195701</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="35">
+        <f>$D$4*(($D8)/($D$6+$D8))</f>
+        <v>8.2898334576186936E-2</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="8">
+        <v>287</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="35">
+        <f>$D$5*(($D7)/($D$6+$D7))</f>
+        <v>0.7029391182645206</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="8">
+        <v>23</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="35">
+        <f>$D$5*(($D8)/($D$6+$D8))</f>
+        <v>6.0029828486204327E-2</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="37">
+        <f>((D4/D6)^2)*D8</f>
+        <v>3.0223437500000004E-4</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="51">
+        <f>A26/D25</f>
+        <v>0.77617253948967191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="49">
+        <v>3292</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="49">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="51">
+        <f>C24/E24</f>
+        <v>16.542713567839197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12.84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="51">
+        <f>A26/D25</f>
+        <v>0.77617253948967191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28">
+        <f>A26/D26</f>
+        <v>16.542713567839197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29">
+        <f>C24/D28</f>
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G8">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>0</formula>
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC0E099-489E-7940-B919-05E4328A05A3}">
+  <dimension ref="B1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="19"/>
+    <col min="2" max="2" width="26.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.875" style="19"/>
+    <col min="8" max="8" width="10.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="26">
+        <v>320.721</v>
+      </c>
+      <c r="H4" s="22">
+        <v>91.5</v>
+      </c>
+      <c r="I4" s="23">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="22">
+        <v>90</v>
+      </c>
+      <c r="I5" s="23">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="H6" s="22">
+        <v>85</v>
+      </c>
+      <c r="I6" s="23">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="H7" s="22">
+        <v>80</v>
+      </c>
+      <c r="I7" s="23">
+        <v>83.39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="20">
+        <v>80</v>
+      </c>
+      <c r="D8" s="21">
+        <v>264</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="22">
+        <v>80</v>
+      </c>
+      <c r="I8" s="23">
+        <v>79.150000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="22">
+        <v>40</v>
+      </c>
+      <c r="D9" s="23">
+        <v>287</v>
+      </c>
+      <c r="E9" s="22">
+        <f>I20</f>
+        <v>311</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="H9" s="22">
+        <v>75</v>
+      </c>
+      <c r="I9" s="23">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="24">
+        <v>120</v>
+      </c>
+      <c r="D10" s="25">
+        <v>23</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="H10" s="22">
+        <v>72.5</v>
+      </c>
+      <c r="I10" s="23">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="22">
+        <v>70</v>
+      </c>
+      <c r="I11" s="23">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="22">
+        <v>69.8</v>
+      </c>
+      <c r="I12" s="23">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="22">
+        <v>65</v>
+      </c>
+      <c r="I13" s="23">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="27">
+        <v>64</v>
+      </c>
+      <c r="I14" s="28">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="22">
+        <v>60</v>
+      </c>
+      <c r="I15" s="23">
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="22">
+        <v>55</v>
+      </c>
+      <c r="I16" s="23">
+        <v>178.6</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="22">
+        <v>49</v>
+      </c>
+      <c r="I17" s="23">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="22">
+        <v>48</v>
+      </c>
+      <c r="I18" s="23">
+        <v>232.6</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="22">
+        <v>41</v>
+      </c>
+      <c r="I19" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="24">
+        <v>40</v>
+      </c>
+      <c r="I20" s="25">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE85C171-F978-8043-AFCC-8F389A489A82}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="H3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="H4" s="19">
+        <v>100</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="19">
+        <v>75</v>
+      </c>
+      <c r="I5" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="19">
+        <v>50</v>
+      </c>
+      <c r="I6" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="19">
+        <v>25</v>
+      </c>
+      <c r="I7" s="19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="20">
+        <v>100</v>
+      </c>
+      <c r="D12" s="21">
+        <v>113</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="23">
+        <v>113</v>
+      </c>
+      <c r="E13" s="22">
+        <v>113</v>
+      </c>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="24">
+        <v>100</v>
+      </c>
+      <c r="D14" s="25">
+        <v>2</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFDC38D-0E62-5447-B740-CDB4B5510DBF}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="19">
+        <v>360.03100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="19">
+        <v>360.03199999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Engine IO.xlsx
+++ b/Engine IO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaidan\Dropbox\Geekery\bedford330\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jaidan/Dropbox/Geekery/bedford330/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{683940A6-D753-4848-B58A-33861C93E97D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1E9DD9DD-A3A4-5544-9D3A-5D4BBBEBEC77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25395" yWindow="465" windowWidth="25485" windowHeight="25140" firstSheet="1" activeTab="3" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25480" windowHeight="25140" xr2:uid="{B7C4ACD1-65CD-8348-B488-7E43C24D871F}"/>
   </bookViews>
   <sheets>
     <sheet name="IO List" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="pwnWhole">'Arduino Pin Data'!$A$13:$B$28</definedName>
     <definedName name="type">'IO List'!$F$5:$F$75</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="231" uniqueCount="171">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="242" uniqueCount="177">
   <si>
     <t>Bedford 330 Diesel I/O List</t>
   </si>
@@ -139,9 +139,6 @@
     <t>bluetoothLink</t>
   </si>
   <si>
-    <t>16:2 display</t>
-  </si>
-  <si>
     <t>Used as backup for when Smart Display isn't working.</t>
   </si>
   <si>
@@ -554,6 +551,27 @@
   </si>
   <si>
     <t>reverse resistor ratio</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>16:2 character display</t>
   </si>
 </sst>
 </file>
@@ -864,6 +882,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,10 +910,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2328,38 +2346,38 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A602C23B-CEC5-164C-8B31-8A986162D4D5}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="47.625" customWidth="1"/>
-    <col min="8" max="8" width="1.375" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" customWidth="1"/>
+    <col min="8" max="8" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" ht="26" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>1</v>
@@ -2375,16 +2393,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>3</v>
@@ -2401,16 +2419,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>3</v>
@@ -2427,16 +2445,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>3</v>
@@ -2453,16 +2471,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>3</v>
@@ -2479,16 +2497,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>3</v>
@@ -2505,16 +2523,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>3</v>
@@ -2524,12 +2542,12 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -2542,16 +2560,16 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -2564,20 +2582,20 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>3</v>
@@ -2587,141 +2605,136 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>32</v>
-      </c>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>28</v>
@@ -2731,14 +2744,14 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>28</v>
@@ -2748,108 +2761,116 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="str">
-        <f t="shared" ref="E24:E36" si="0">IF(ISNUMBER(D24),VLOOKUP(D24,aiWhole,2),"")</f>
-        <v/>
+      <c r="E24" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E25" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="3"/>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E26" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="3"/>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E27" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="3"/>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E28" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="3"/>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E29" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E24:E36" si="0">IF(ISNUMBER(D30),VLOOKUP(D30,aiWhole,2),"")</f>
         <v/>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="3"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2861,7 +2882,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2873,7 +2894,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2885,7 +2906,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2897,7 +2918,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2909,7 +2930,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2921,171 +2942,171 @@
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
         <v>78</v>
       </c>
-      <c r="G41" t="s">
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>81</v>
       </c>
       <c r="D43">
         <v>560</v>
       </c>
       <c r="G43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>84</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
         <v>94</v>
       </c>
-      <c r="G49" t="s">
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>96</v>
       </c>
-      <c r="G50" t="s">
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>99</v>
       </c>
-      <c r="C51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="G52" t="s">
         <v>100</v>
       </c>
-      <c r="G52" t="s">
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="G53" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" t="s">
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
         <v>106</v>
       </c>
-      <c r="C54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
         <v>113</v>
       </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>116</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3109,78 +3130,78 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3188,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3196,7 +3217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3204,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3212,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3220,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -3228,7 +3249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -3236,7 +3257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -3244,7 +3265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3252,7 +3273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
@@ -3260,7 +3281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>11</v>
       </c>
@@ -3268,7 +3289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
@@ -3276,7 +3297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -3284,7 +3305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>14</v>
       </c>
@@ -3292,7 +3313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>15</v>
       </c>
@@ -3313,142 +3334,142 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="33"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="31">
         <v>14.5</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>157</v>
       </c>
       <c r="G4" s="35">
         <f>$D$4*(($D7)/($D$6+$D7))</f>
         <v>0.97072544903195701</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="8">
         <v>10.5</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="35">
         <f>$D$4*(($D8)/($D$6+$D8))</f>
         <v>8.2898334576186936E-2</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="8">
         <v>4000</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="8">
         <v>287</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="35">
         <f>$D$5*(($D7)/($D$6+$D7))</f>
         <v>0.7029391182645206</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="8">
         <v>23</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="35">
         <f>$D$5*(($D8)/($D$6+$D8))</f>
         <v>6.0029828486204327E-2</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="37">
         <f>((D4/D6)^2)*D8</f>
@@ -3459,68 +3480,68 @@
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="51">
+        <v>167</v>
+      </c>
+      <c r="D23" s="43">
         <f>A26/D25</f>
         <v>0.77617253948967191</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="41">
+        <v>3292</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="41">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="49">
-        <v>3292</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="49">
-        <v>199</v>
-      </c>
-      <c r="G24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="51">
+        <v>166</v>
+      </c>
+      <c r="D25" s="43">
         <f>C24/E24</f>
         <v>16.542713567839197</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>12.84</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="51">
+        <v>165</v>
+      </c>
+      <c r="D26" s="43">
         <f>A26/D25</f>
         <v>0.77617253948967191</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28">
         <f>A26/D26</f>
         <v>16.542713567839197</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29">
         <f>C24/D28</f>
@@ -3559,49 +3580,49 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC0E099-489E-7940-B919-05E4328A05A3}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="19"/>
-    <col min="2" max="2" width="26.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.875" style="19"/>
-    <col min="8" max="8" width="10.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="19"/>
+    <col min="1" max="1" width="8.83203125" style="19"/>
+    <col min="2" max="2" width="26.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.83203125" style="19"/>
+    <col min="8" max="8" width="10.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H2" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="C4" s="26">
         <v>320.721</v>
@@ -3613,12 +3634,12 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="22">
         <v>90</v>
@@ -3627,15 +3648,15 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="46" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="51"/>
       <c r="H6" s="22">
         <v>85</v>
       </c>
@@ -3643,12 +3664,12 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C7" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
@@ -3659,9 +3680,9 @@
         <v>83.39</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="20">
         <v>80</v>
@@ -3678,9 +3699,9 @@
         <v>79.150000000000006</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="22">
         <v>40</v>
@@ -3700,9 +3721,9 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="24">
         <v>120</v>
@@ -3719,7 +3740,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H11" s="22">
         <v>70</v>
       </c>
@@ -3727,9 +3748,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="22">
         <v>69.8</v>
@@ -3738,9 +3759,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="22">
         <v>65</v>
@@ -3749,9 +3770,9 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="27">
         <v>64</v>
@@ -3760,7 +3781,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H15" s="22">
         <v>60</v>
       </c>
@@ -3768,7 +3789,7 @@
         <v>149.69999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H16" s="22">
         <v>55</v>
       </c>
@@ -3776,7 +3797,7 @@
         <v>178.6</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H17" s="22">
         <v>49</v>
       </c>
@@ -3784,7 +3805,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18" s="22">
         <v>48</v>
       </c>
@@ -3792,7 +3813,7 @@
         <v>232.6</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" s="22">
         <v>41</v>
       </c>
@@ -3800,7 +3821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H20" s="24">
         <v>40</v>
       </c>
@@ -3826,34 +3847,34 @@
       <selection activeCell="H3" sqref="H3:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="19"/>
+    <col min="1" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="C3" s="26"/>
       <c r="H3" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="26"/>
       <c r="H4" s="19">
@@ -3863,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H5" s="19">
         <v>75</v>
       </c>
@@ -3871,9 +3892,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="19">
         <v>50</v>
@@ -3882,9 +3903,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="19">
         <v>25</v>
@@ -3893,7 +3914,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H8" s="19">
         <v>0</v>
       </c>
@@ -3901,29 +3922,29 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="46" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="20">
         <v>100</v>
@@ -3934,9 +3955,9 @@
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="22">
         <v>0</v>
@@ -3949,9 +3970,9 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="24">
         <v>100</v>
@@ -3964,19 +3985,19 @@
       </c>
       <c r="F14" s="25"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3996,39 +4017,39 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="19"/>
+    <col min="1" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="19">
         <v>360.03100000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="19">
         <v>360.03199999999998</v>
